--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Tlr2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H2">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I2">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J2">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N2">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O2">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P2">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q2">
-        <v>2.982454675135334</v>
+        <v>8.572373971883888</v>
       </c>
       <c r="R2">
-        <v>26.84209207621801</v>
+        <v>77.15136574695499</v>
       </c>
       <c r="S2">
-        <v>7.133970387234901E-05</v>
+        <v>0.000251577043242321</v>
       </c>
       <c r="T2">
-        <v>7.173520938707318E-05</v>
+        <v>0.0002654953152614616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H3">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I3">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J3">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.593403</v>
       </c>
       <c r="O3">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P3">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q3">
-        <v>8.210943248666558</v>
+        <v>8.520151681095223</v>
       </c>
       <c r="R3">
-        <v>73.89848923799902</v>
+        <v>76.681365129857</v>
       </c>
       <c r="S3">
-        <v>0.0001964040777404121</v>
+        <v>0.0002500444538393104</v>
       </c>
       <c r="T3">
-        <v>0.0001974929369820995</v>
+        <v>0.0002638779367380693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H4">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I4">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J4">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N4">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O4">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P4">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q4">
-        <v>210.9563899437377</v>
+        <v>318.54129744192</v>
       </c>
       <c r="R4">
-        <v>1898.607509493639</v>
+        <v>2866.87167697728</v>
       </c>
       <c r="S4">
-        <v>0.005046033562231129</v>
+        <v>0.009348364644828912</v>
       </c>
       <c r="T4">
-        <v>0.005074008644731004</v>
+        <v>0.009865554450321298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H5">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I5">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J5">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N5">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O5">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P5">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q5">
-        <v>0.9041614552533334</v>
+        <v>4.988279005893667</v>
       </c>
       <c r="R5">
-        <v>5.42496873152</v>
+        <v>29.929674035362</v>
       </c>
       <c r="S5">
-        <v>2.162735648870775E-05</v>
+        <v>0.0001463931096900903</v>
       </c>
       <c r="T5">
-        <v>1.449817200421228E-05</v>
+        <v>0.0001029947839128802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H6">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I6">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J6">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N6">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O6">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P6">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q6">
-        <v>296.7733017887351</v>
+        <v>247.2034927731681</v>
       </c>
       <c r="R6">
-        <v>2670.959716098616</v>
+        <v>2224.831434958513</v>
       </c>
       <c r="S6">
-        <v>0.007098756485165001</v>
+        <v>0.007254784263381929</v>
       </c>
       <c r="T6">
-        <v>0.007138111811654586</v>
+        <v>0.007656148630800269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J7">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N7">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O7">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P7">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q7">
-        <v>134.6261283063234</v>
+        <v>372.9085464740639</v>
       </c>
       <c r="R7">
-        <v>1211.63515475691</v>
+        <v>3356.176918266575</v>
       </c>
       <c r="S7">
-        <v>0.003220229365738195</v>
+        <v>0.01094390303426293</v>
       </c>
       <c r="T7">
-        <v>0.003238082235931</v>
+        <v>0.01154936455578679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J8">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.593403</v>
       </c>
       <c r="O8">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P8">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q8">
         <v>370.6368142076673</v>
@@ -948,10 +948,10 @@
         <v>3335.731327869006</v>
       </c>
       <c r="S8">
-        <v>0.008865556546493373</v>
+        <v>0.01087723355758205</v>
       </c>
       <c r="T8">
-        <v>0.008914706967856366</v>
+        <v>0.01147900665070299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J9">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N9">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O9">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P9">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q9">
-        <v>9522.438767092313</v>
+        <v>13856.9283853728</v>
       </c>
       <c r="R9">
-        <v>85701.94890383082</v>
+        <v>124712.3554683552</v>
       </c>
       <c r="S9">
-        <v>0.2277747814411014</v>
+        <v>0.406665071198074</v>
       </c>
       <c r="T9">
-        <v>0.2290375590710204</v>
+        <v>0.4291634478729528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J10">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N10">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O10">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P10">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q10">
-        <v>40.81327944373334</v>
+        <v>216.9961179477217</v>
       </c>
       <c r="R10">
-        <v>244.8796766624</v>
+        <v>1301.97670768633</v>
       </c>
       <c r="S10">
-        <v>0.000976245269995007</v>
+        <v>0.006368275804042253</v>
       </c>
       <c r="T10">
-        <v>0.0006544383660608889</v>
+        <v>0.004480396596011068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I11">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J11">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N11">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O11">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P11">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q11">
-        <v>13396.16019569133</v>
+        <v>10753.64834475312</v>
       </c>
       <c r="R11">
-        <v>120565.441761222</v>
+        <v>96782.83510277804</v>
       </c>
       <c r="S11">
-        <v>0.3204334031811574</v>
+        <v>0.3155918142995024</v>
       </c>
       <c r="T11">
-        <v>0.3222098778674941</v>
+        <v>0.3330516455377752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H12">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I12">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J12">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N12">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O12">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P12">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q12">
-        <v>5.486319840339333</v>
+        <v>37.92493740041944</v>
       </c>
       <c r="R12">
-        <v>49.376878563054</v>
+        <v>341.3244366037749</v>
       </c>
       <c r="S12">
-        <v>0.0001312316448668381</v>
+        <v>0.001112998995102272</v>
       </c>
       <c r="T12">
-        <v>0.0001319591897883033</v>
+        <v>0.001174574656264417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H13">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I13">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J13">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.593403</v>
       </c>
       <c r="O13">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P13">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q13">
-        <v>15.10429017702189</v>
+        <v>37.69390138687611</v>
       </c>
       <c r="R13">
-        <v>135.938611593197</v>
+        <v>339.245112481885</v>
       </c>
       <c r="S13">
-        <v>0.0003612915218508314</v>
+        <v>0.00110621868461181</v>
       </c>
       <c r="T13">
-        <v>0.0003632945129141357</v>
+        <v>0.001167419231238209</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H14">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I14">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J14">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N14">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O14">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P14">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q14">
-        <v>388.0609610746797</v>
+        <v>1409.2547530656</v>
       </c>
       <c r="R14">
-        <v>3492.548649672117</v>
+        <v>12683.2927775904</v>
       </c>
       <c r="S14">
-        <v>0.009282338564367483</v>
+        <v>0.0413579884772009</v>
       </c>
       <c r="T14">
-        <v>0.009333799614700876</v>
+        <v>0.04364608172438846</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H15">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I15">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J15">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N15">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O15">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P15">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q15">
-        <v>1.663233635093333</v>
+        <v>22.06858562806833</v>
       </c>
       <c r="R15">
-        <v>9.979401810559999</v>
+        <v>132.41151376841</v>
       </c>
       <c r="S15">
-        <v>3.978420727976522E-05</v>
+        <v>0.0006476560097656703</v>
       </c>
       <c r="T15">
-        <v>2.666984661275791E-05</v>
+        <v>0.0004556579945388569</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H16">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I16">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J16">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N16">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O16">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P16">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q16">
-        <v>545.9238885542051</v>
+        <v>1093.65002265844</v>
       </c>
       <c r="R16">
-        <v>4913.314996987846</v>
+        <v>9842.850203925964</v>
       </c>
       <c r="S16">
-        <v>0.01305838739847103</v>
+        <v>0.0320958044929814</v>
       </c>
       <c r="T16">
-        <v>0.01313078276807813</v>
+        <v>0.03387147580165557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H17">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I17">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J17">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N17">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O17">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P17">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q17">
-        <v>3.552193708541</v>
+        <v>74.14352831372416</v>
       </c>
       <c r="R17">
-        <v>21.313162251246</v>
+        <v>444.8611698823449</v>
       </c>
       <c r="S17">
-        <v>8.496774464914112E-05</v>
+        <v>0.002175921126387914</v>
       </c>
       <c r="T17">
-        <v>5.695920245160024E-05</v>
+        <v>0.00153086799439007</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H18">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I18">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J18">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.593403</v>
       </c>
       <c r="O18">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P18">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q18">
-        <v>9.779481710908835</v>
+        <v>73.69185122772717</v>
       </c>
       <c r="R18">
-        <v>58.676890265453</v>
+        <v>442.151107366363</v>
       </c>
       <c r="S18">
-        <v>0.0002339231959156702</v>
+        <v>0.002162665570089493</v>
       </c>
       <c r="T18">
-        <v>0.0001568133734666651</v>
+        <v>0.001521542055761599</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H19">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I19">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J19">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N19">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O19">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P19">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q19">
-        <v>251.2554398167555</v>
+        <v>2755.10328684192</v>
       </c>
       <c r="R19">
-        <v>1507.532638900533</v>
+        <v>16530.61972105152</v>
       </c>
       <c r="S19">
-        <v>0.006009978566407147</v>
+        <v>0.08085516812544848</v>
       </c>
       <c r="T19">
-        <v>0.004028865157093741</v>
+        <v>0.05688560470468566</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H20">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I20">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J20">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N20">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O20">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P20">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q20">
-        <v>1.07688363536</v>
+        <v>43.1442453307895</v>
       </c>
       <c r="R20">
-        <v>4.30753454144</v>
+        <v>172.576981323158</v>
       </c>
       <c r="S20">
-        <v>2.575883559674717E-05</v>
+        <v>0.001266172207237012</v>
       </c>
       <c r="T20">
-        <v>1.151184085781537E-05</v>
+        <v>0.0005938764611574171</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H21">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I21">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J21">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N21">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O21">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P21">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q21">
-        <v>353.4659769570676</v>
+        <v>2138.093744602577</v>
       </c>
       <c r="R21">
-        <v>2120.795861742406</v>
+        <v>12828.56246761546</v>
       </c>
       <c r="S21">
-        <v>0.008454833642668354</v>
+        <v>0.06274753110471325</v>
       </c>
       <c r="T21">
-        <v>0.005667804684424038</v>
+        <v>0.04414598761429374</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H22">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I22">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J22">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N22">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O22">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P22">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q22">
-        <v>93.21264395733267</v>
+        <v>3.3663125659</v>
       </c>
       <c r="R22">
-        <v>838.913795615994</v>
+        <v>30.2968130931</v>
       </c>
       <c r="S22">
-        <v>0.002229627317562863</v>
+        <v>9.879258239739142E-05</v>
       </c>
       <c r="T22">
-        <v>0.002241988315044065</v>
+        <v>0.0001042581925244483</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H23">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I23">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J23">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.593403</v>
       </c>
       <c r="O23">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P23">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q23">
-        <v>256.6220824653741</v>
+        <v>3.34580522986</v>
       </c>
       <c r="R23">
-        <v>2309.598742188367</v>
+        <v>30.11224706874</v>
       </c>
       <c r="S23">
-        <v>0.006138347557404068</v>
+        <v>9.819074503207803E-05</v>
       </c>
       <c r="T23">
-        <v>0.006172378401078314</v>
+        <v>0.0001036230590520905</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H24">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I24">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J24">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N24">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O24">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P24">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q24">
-        <v>6593.160670734277</v>
+        <v>125.0889865344</v>
       </c>
       <c r="R24">
-        <v>59338.44603660849</v>
+        <v>1125.8008788096</v>
       </c>
       <c r="S24">
-        <v>0.1577070504220347</v>
+        <v>0.003671038790155235</v>
       </c>
       <c r="T24">
-        <v>0.1585813743225713</v>
+        <v>0.00387413568570537</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H25">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I25">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J25">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N25">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O25">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P25">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q25">
-        <v>28.25836064202666</v>
+        <v>1.95886301214</v>
       </c>
       <c r="R25">
-        <v>169.55016385216</v>
+        <v>11.75317807284</v>
       </c>
       <c r="S25">
-        <v>0.000675934188347304</v>
+        <v>5.748757185900369E-05</v>
       </c>
       <c r="T25">
-        <v>0.0004531210335994408</v>
+        <v>4.044534646356419E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>101.3861963333333</v>
+        <v>1.32186</v>
       </c>
       <c r="H26">
-        <v>304.158589</v>
+        <v>3.96558</v>
       </c>
       <c r="I26">
-        <v>0.388613127687944</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J26">
-        <v>0.3905410285264901</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N26">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O26">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P26">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q26">
-        <v>9275.253819044257</v>
+        <v>97.07511907273999</v>
       </c>
       <c r="R26">
-        <v>83477.2843713983</v>
+        <v>873.6760716546599</v>
       </c>
       <c r="S26">
-        <v>0.2218621682025951</v>
+        <v>0.002848904108572056</v>
       </c>
       <c r="T26">
-        <v>0.223092166454197</v>
+        <v>0.003006517147617754</v>
       </c>
     </row>
   </sheetData>
